--- a/検討資料/きのこたけのこ寸法.xlsx
+++ b/検討資料/きのこたけのこ寸法.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\home\KinokoTakenokoClassifier\検討資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4924CD-803D-4999-9B90-CEB85092AFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFCE194-2E3F-432E-AD6B-D5D04D5F61BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FC93A226-185D-4E03-ACE5-76DC3398E8FA}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{FC93A226-185D-4E03-ACE5-76DC3398E8FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
@@ -111,12 +111,85 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>7.3-10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>④は楕円</t>
+    <rPh sb="2" eb="4">
+      <t>ダエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なんか明らかにサイズ違ってたから採寸しなおした</t>
+    <rPh sb="3" eb="4">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイスン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きのこの山、たけのこの里の寸法</t>
+    <rPh sb="4" eb="5">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サト</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スンポウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この寸法を元に、センサ配置を決める</t>
+    <rPh sb="2" eb="4">
+      <t>スンポウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2mm違っていても影響ないので、だいたいのサイズとなっている</t>
+    <rPh sb="5" eb="6">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノギスで測っているため、誤差はあるが、</t>
+    <rPh sb="4" eb="5">
+      <t>ハカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +202,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -171,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -197,13 +279,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>405653</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>319927</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>227480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -267,13 +349,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>90420</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>49459</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>432393</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>88874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -337,13 +419,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>362791</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -389,13 +471,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>387638</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -439,13 +521,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>33131</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -493,13 +575,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>397565</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>227480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>405653</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -545,13 +627,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>323021</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>210915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>331109</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -595,13 +677,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>420768</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>314739</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -649,13 +731,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>155725</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -699,13 +781,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>263400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>78709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>78709</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -749,13 +831,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>91109</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -803,13 +885,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>289890</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>289890</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -853,13 +935,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>231912</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>231912</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -903,13 +985,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>82826</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>240195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -953,13 +1035,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>430696</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>430696</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>240195</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1003,13 +1085,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>106028</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>115958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>115958</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1057,13 +1139,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>288246</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>223630</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1111,7 +1193,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>679174</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -1169,7 +1251,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>107674</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -1227,7 +1309,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>115957</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>66260</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -1285,7 +1367,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8283</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -1343,7 +1425,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>223630</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -1401,13 +1483,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>309167</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>88217</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>223442</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>199386</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1471,13 +1553,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>338899</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>24613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>680872</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>64027</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1541,13 +1623,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19277</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>220741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>621008</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>91714</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1611,13 +1693,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>660964</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>670891</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1661,13 +1743,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>455543</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>455543</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>207065</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1715,7 +1797,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>207065</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="325730" cy="328423"/>
@@ -2069,171 +2151,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32D6AD7-F581-4519-B04F-E8EB54F69396}">
-  <dimension ref="D2:P28"/>
+  <dimension ref="D2:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D2" s="1" t="s">
-        <v>5</v>
+      <c r="F2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.4">
       <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L8" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
-      </c>
-      <c r="L19">
-        <v>31</v>
-      </c>
-      <c r="M19">
-        <v>15.5</v>
-      </c>
-      <c r="N19">
-        <v>11.5</v>
-      </c>
-      <c r="O19">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G20">
-        <v>24.3</v>
-      </c>
-      <c r="H20">
-        <v>14.7</v>
-      </c>
-      <c r="L20">
-        <v>30.8</v>
-      </c>
-      <c r="M20">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>12</v>
-      </c>
-      <c r="O20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G21">
-        <v>23.9</v>
-      </c>
-      <c r="H21">
-        <v>14.8</v>
-      </c>
-      <c r="L21">
-        <v>30.8</v>
-      </c>
-      <c r="M21">
-        <v>15</v>
-      </c>
-      <c r="N21">
-        <v>11.8</v>
-      </c>
-      <c r="O21">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G22">
-        <v>23.8</v>
-      </c>
-      <c r="H22">
-        <v>14.8</v>
-      </c>
-      <c r="L22">
-        <v>32.4</v>
-      </c>
-      <c r="M22">
-        <v>14.4</v>
-      </c>
-      <c r="N22">
-        <v>12.1</v>
-      </c>
-      <c r="O22">
-        <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="23" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G23">
-        <v>23.8</v>
-      </c>
-      <c r="H23">
-        <v>14.6</v>
-      </c>
-      <c r="L23">
-        <v>30.5</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="G23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="N23">
-        <v>11.8</v>
-      </c>
-      <c r="O23">
-        <v>9.4</v>
+      <c r="H24">
+        <v>15</v>
+      </c>
+      <c r="L24">
+        <v>31.2</v>
+      </c>
+      <c r="M24">
+        <v>18.8</v>
+      </c>
+      <c r="N24">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <v>24.3</v>
+      </c>
+      <c r="H25">
+        <v>14.7</v>
       </c>
     </row>
     <row r="26" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G26" t="s">
-        <v>3</v>
+      <c r="G26">
+        <v>23.9</v>
+      </c>
+      <c r="H26">
+        <v>14.8</v>
       </c>
       <c r="L26" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="G27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27" t="s">
-        <v>4</v>
+      <c r="G27">
+        <v>23.8</v>
+      </c>
+      <c r="H27">
+        <v>14.8</v>
       </c>
     </row>
     <row r="28" spans="7:16" x14ac:dyDescent="0.4">
-      <c r="L28" t="s">
+      <c r="G28">
+        <v>23.8</v>
+      </c>
+      <c r="H28">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="31" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="7:16" x14ac:dyDescent="0.4">
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.4">
+      <c r="L33" t="s">
         <v>12</v>
       </c>
     </row>
